--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.7466448402440307</v>
+        <v>9.7466447467594435</v>
       </c>
       <c r="C2">
-        <v>15.917496051630417</v>
+        <v>15.917496020821501</v>
       </c>
       <c r="D2">
-        <v>23.682909296739155</v>
+        <v>23.682909247975317</v>
       </c>
       <c r="E2">
-        <v>41.318378765730117</v>
+        <v>41.318378699079091</v>
       </c>
       <c r="F2">
-        <v>24.264497336017165</v>
+        <v>24.264497336500646</v>
       </c>
       <c r="G2">
-        <v>10.023100884158314</v>
+        <v>10.023100854840454</v>
       </c>
       <c r="H2">
-        <v>18.429871055416903</v>
+        <v>18.429870946912807</v>
       </c>
       <c r="I2">
-        <v>21.482963375740319</v>
+        <v>21.482963375751947</v>
       </c>
       <c r="J2">
-        <v>26.199660234080781</v>
+        <v>26.199660207049014</v>
       </c>
       <c r="K2">
-        <v>8.0234832272161647</v>
+        <v>8.0234832029318675</v>
       </c>
       <c r="L2">
-        <v>5.5129392646736592</v>
+        <v>5.5129392294670527</v>
       </c>
       <c r="M2">
-        <v>-6.023914725636569</v>
+        <v>-6.0239147667329167</v>
       </c>
       <c r="N2">
-        <v>23.399624749555283</v>
+        <v>23.399624722241104</v>
       </c>
       <c r="O2">
-        <v>18.371785801758403</v>
+        <v>18.371785763927985</v>
       </c>
       <c r="P2">
-        <v>32.567768235820992</v>
+        <v>32.567768180913667</v>
       </c>
       <c r="Q2">
-        <v>3.2396633302886579</v>
+        <v>3.2396632753460843</v>
       </c>
       <c r="R2">
-        <v>-5.0379295576869376</v>
+        <v>-5.0379295087167808</v>
       </c>
       <c r="S2">
-        <v>32.702853788116549</v>
+        <v>32.702853828615311</v>
       </c>
       <c r="T2">
-        <v>36.4985174162371</v>
+        <v>36.498517430680764</v>
       </c>
       <c r="U2">
-        <v>3.7028259497375564</v>
+        <v>3.7028259184615777</v>
       </c>
       <c r="V2">
-        <v>13.267156772417529</v>
+        <v>13.267156762609094</v>
       </c>
       <c r="W2">
-        <v>-12.287820420300168</v>
+        <v>-12.287820485487925</v>
       </c>
       <c r="X2">
-        <v>5.902693916228138</v>
+        <v>5.9026938787671357</v>
       </c>
       <c r="Y2">
-        <v>37.888399654271709</v>
+        <v>37.888399593553515</v>
       </c>
       <c r="Z2">
-        <v>21.694346045653933</v>
+        <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>43.469810881254134</v>
+        <v>43.46981079465094</v>
       </c>
       <c r="AB2">
-        <v>32.087357157846</v>
+        <v>32.087357028778534</v>
       </c>
       <c r="AC2">
-        <v>5.5501907232172538</v>
+        <v>5.5501907232366188</v>
       </c>
       <c r="AD2">
-        <v>49.438105782777306</v>
+        <v>49.438105617671383</v>
       </c>
       <c r="AE2">
-        <v>22.627627682645983</v>
+        <v>22.627627629959619</v>
       </c>
       <c r="AF2">
-        <v>28.924693421245017</v>
+        <v>28.924693353948328</v>
       </c>
       <c r="AG2">
-        <v>35.191906680604774</v>
+        <v>35.191906656380709</v>
       </c>
       <c r="AH2">
-        <v>30.127716875639432</v>
+        <v>30.127716813566209</v>
       </c>
       <c r="AI2">
-        <v>31.943599742912927</v>
+        <v>31.943599670124801</v>
       </c>
       <c r="AJ2">
-        <v>19.380218473773564</v>
+        <v>19.380218422105521</v>
       </c>
       <c r="AK2">
-        <v>26.972176533942065</v>
+        <v>26.972176475011299</v>
       </c>
       <c r="AL2">
-        <v>-6.552229435559076E-2</v>
+        <v>-6.5522317615746353E-2</v>
       </c>
       <c r="AM2">
-        <v>30.667065519376731</v>
+        <v>30.667065422693874</v>
       </c>
       <c r="AN2">
-        <v>28.341413695349292</v>
+        <v>28.341413640460928</v>
       </c>
       <c r="AO2">
-        <v>53.33195616456856</v>
+        <v>53.331956066206942</v>
       </c>
       <c r="AP2">
-        <v>31.248293881494149</v>
+        <v>31.248293822622053</v>
       </c>
       <c r="AQ2">
-        <v>2.013325458420308</v>
+        <v>2.0133254430788305</v>
       </c>
       <c r="AR2">
-        <v>38.979623983202451</v>
+        <v>38.979623969346122</v>
       </c>
       <c r="AS2">
-        <v>33.708427967749984</v>
+        <v>33.708427919476499</v>
       </c>
       <c r="AT2">
-        <v>16.935846522471451</v>
+        <v>16.935846470422767</v>
       </c>
       <c r="AU2">
-        <v>28.653811382139803</v>
+        <v>28.653811356718673</v>
       </c>
       <c r="AV2">
-        <v>14.313137363152082</v>
+        <v>14.313137158483308</v>
       </c>
       <c r="AW2">
-        <v>12.977656340293874</v>
+        <v>12.97765628667743</v>
       </c>
       <c r="AX2">
-        <v>32.447929155506976</v>
+        <v>32.447929099661195</v>
       </c>
       <c r="AY2">
-        <v>43.107569289998594</v>
+        <v>43.107569247971547</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>15.304330589090199</v>
       </c>
       <c r="C3">
-        <v>17.142767282184369</v>
+        <v>17.142767222814935</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>35.5408761611572</v>
       </c>
       <c r="E3">
-        <v>33.214849823827237</v>
+        <v>33.214849791099525</v>
       </c>
       <c r="F3">
-        <v>15.957708493147486</v>
+        <v>15.957708418507972</v>
       </c>
       <c r="G3">
-        <v>25.510651913673442</v>
+        <v>25.510651851953831</v>
       </c>
       <c r="H3">
-        <v>4.3511259518138283</v>
+        <v>4.3511259748722093</v>
       </c>
       <c r="I3">
-        <v>8.385609058501041</v>
+        <v>8.3856090355137543</v>
       </c>
       <c r="J3">
-        <v>32.208461037824016</v>
+        <v>32.208460956674038</v>
       </c>
       <c r="K3">
-        <v>59.306064200716058</v>
+        <v>59.306064187524655</v>
       </c>
       <c r="L3">
-        <v>38.831407572293664</v>
+        <v>38.831407511788989</v>
       </c>
       <c r="M3">
-        <v>4.7406032210828544</v>
+        <v>4.7404981161027555</v>
       </c>
       <c r="N3">
-        <v>20.682618568406106</v>
+        <v>20.682618561610106</v>
       </c>
       <c r="O3">
-        <v>-18.232294713704785</v>
+        <v>-18.2322947181644</v>
       </c>
       <c r="P3">
-        <v>33.435777015434162</v>
+        <v>33.435776935706343</v>
       </c>
       <c r="Q3">
-        <v>15.573339710214373</v>
+        <v>15.573339653798765</v>
       </c>
       <c r="R3">
-        <v>-0.28645486103765549</v>
+        <v>-0.28645492969390712</v>
       </c>
       <c r="S3">
-        <v>31.230574268518296</v>
+        <v>31.230574214754554</v>
       </c>
       <c r="T3">
-        <v>35.736491180088272</v>
+        <v>35.736491128113087</v>
       </c>
       <c r="U3">
-        <v>20.204850153436961</v>
+        <v>20.204850097989365</v>
       </c>
       <c r="V3">
-        <v>25.065027879690859</v>
+        <v>25.065027895673808</v>
       </c>
       <c r="W3">
-        <v>4.5735000749151098</v>
+        <v>4.5734999841240063</v>
       </c>
       <c r="X3">
-        <v>-1.1731183458703709</v>
+        <v>-1.1731183731298778</v>
       </c>
       <c r="Y3">
-        <v>41.560171507136495</v>
+        <v>41.560171419565144</v>
       </c>
       <c r="Z3">
-        <v>23.777280095507493</v>
+        <v>23.777280052305926</v>
       </c>
       <c r="AA3">
-        <v>44.661965376314328</v>
+        <v>44.661965303193448</v>
       </c>
       <c r="AB3">
-        <v>34.610549908130366</v>
+        <v>34.610549840104468</v>
       </c>
       <c r="AC3">
-        <v>45.338450247838871</v>
+        <v>45.33845016341003</v>
       </c>
       <c r="AD3">
-        <v>48.001103406325477</v>
+        <v>48.001103374031793</v>
       </c>
       <c r="AE3">
-        <v>41.129428908658483</v>
+        <v>41.129428841249556</v>
       </c>
       <c r="AF3">
-        <v>27.012339081685205</v>
+        <v>27.01233900143399</v>
       </c>
       <c r="AG3">
-        <v>18.665924649782404</v>
+        <v>18.66592459448681</v>
       </c>
       <c r="AH3">
-        <v>9.7071282418269771</v>
+        <v>9.7071281925496269</v>
       </c>
       <c r="AI3">
-        <v>73.607505433042704</v>
+        <v>73.607505431487965</v>
       </c>
       <c r="AJ3">
-        <v>46.223079361611795</v>
+        <v>46.223079258678105</v>
       </c>
       <c r="AK3">
-        <v>35.837872550080476</v>
+        <v>35.837872473075997</v>
       </c>
       <c r="AL3">
-        <v>17.97679956443957</v>
+        <v>17.976799515522838</v>
       </c>
       <c r="AM3">
-        <v>23.677839633543243</v>
+        <v>23.677839492541434</v>
       </c>
       <c r="AN3">
-        <v>-13.559318433569306</v>
+        <v>-13.559318471402223</v>
       </c>
       <c r="AO3">
-        <v>46.583341797160323</v>
+        <v>46.5833416578377</v>
       </c>
       <c r="AP3">
-        <v>13.950741579122605</v>
+        <v>13.950741500857502</v>
       </c>
       <c r="AQ3">
-        <v>21.572526631774561</v>
+        <v>21.57252658898393</v>
       </c>
       <c r="AR3">
-        <v>47.106139158889903</v>
+        <v>47.106139112186717</v>
       </c>
       <c r="AS3">
-        <v>31.71654782322868</v>
+        <v>31.716547790366583</v>
       </c>
       <c r="AT3">
-        <v>27.074993367841838</v>
+        <v>27.074993310642732</v>
       </c>
       <c r="AU3">
-        <v>18.780747589075197</v>
+        <v>18.780747561012351</v>
       </c>
       <c r="AV3">
-        <v>15.882821103453074</v>
+        <v>15.882820978804274</v>
       </c>
       <c r="AW3">
-        <v>12.805408860670051</v>
+        <v>12.805408793303993</v>
       </c>
       <c r="AX3">
-        <v>15.383506618441267</v>
+        <v>15.383506587207338</v>
       </c>
       <c r="AY3">
-        <v>43.754098369060927</v>
+        <v>43.754098313030276</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.7466447467594435</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.917496020821501</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>23.682909247975317</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>41.318378699079091</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>24.264497336500646</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.023100854840454</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>18.429870946912807</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.482963375751947</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>26.199660207049014</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.0234832029318675</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.5129392294670527</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.0239147667329167</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23.399624722241104</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.371785763927985</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>32.567768180913667</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.2396632753460843</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-5.0379295087167808</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>32.702853828615311</v>
+        <v>20.302801562344996</v>
       </c>
       <c r="T2">
         <v>36.498517430680764</v>
@@ -588,55 +477,55 @@
         <v>21.694346004506183</v>
       </c>
       <c r="AA2">
-        <v>43.46981079465094</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>32.087357028778534</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.5501907232366188</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>49.438105617671383</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>22.627627629959619</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>28.924693353948328</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>35.191906656380709</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>30.127716813566209</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>31.943599670124801</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.380218422105521</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>26.972176475011299</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-6.5522317615746353E-2</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>30.667065422693874</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>28.341413640460928</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>53.331956066206942</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>31.248293822622053</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.0133254430788305</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>38.979623969346122</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.304330589090199</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>17.142767222814935</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>35.5408761611572</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>33.214849791099525</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>15.957708418507972</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>25.510651851953831</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.3511259748722093</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.3856090355137543</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>32.208460956674038</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>59.306064187524655</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>38.831407511788989</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.7404981161027555</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>20.682618561610106</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-18.2322947181644</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>33.435776935706343</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.573339653798765</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-0.28645492969390712</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>31.230574214754554</v>
@@ -743,55 +629,55 @@
         <v>23.777280052305926</v>
       </c>
       <c r="AA3">
-        <v>44.661965303193448</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>34.610549840104468</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>45.33845016341003</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>48.001103374031793</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>41.129428841249556</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>27.01233900143399</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>18.66592459448681</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.7071281925496269</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>73.607505431487965</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>46.223079258678105</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>35.837872473075997</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>17.976799515522838</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>23.677839492541434</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-13.559318471402223</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>46.5833416578377</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>13.950741500857502</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>21.57252658898393</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>47.106139112186717</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>9.7466448402440307</v>
-      </c>
       <c r="C2">
-        <v>11.929703794777597</v>
-      </c>
-      <c r="D2">
-        <v>23.682909296739155</v>
-      </c>
-      <c r="E2">
-        <v>41.318378765730117</v>
+        <v>-5.0379295087167808</v>
       </c>
       <c r="F2">
         <v>24.264497336017165</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>-6.5016201590062561</v>
       </c>
       <c r="C3">
-        <v>17.142767282184369</v>
+        <v>-0.28645492969390712</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>-12.316003057273068</v>
       </c>
       <c r="E3">
-        <v>33.214849823827237</v>
+        <v>24.981617136560903</v>
       </c>
       <c r="F3">
         <v>15.957708493147486</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.7466448402440307</v>
-      </c>
-      <c r="C2">
-        <v>11.929703794777597</v>
+        <v>23.254962237594334</v>
       </c>
       <c r="D2">
-        <v>23.682909296739155</v>
-      </c>
-      <c r="E2">
-        <v>41.318378765730117</v>
+        <v>34.561854057171395</v>
       </c>
       <c r="F2">
         <v>24.264497336017165</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.304330830267448</v>
+        <v>20.682618561610106</v>
       </c>
       <c r="C3">
-        <v>17.142767282184369</v>
+        <v>-6.5016201590062561</v>
       </c>
       <c r="D3">
-        <v>35.540876346929288</v>
+        <v>23.677839492541434</v>
       </c>
       <c r="E3">
-        <v>43.69366070356611</v>
+        <v>-12.316003057273068</v>
       </c>
       <c r="F3">
         <v>15.957708493147486</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_Fuku_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>10.01244868789572</v>
+      </c>
+      <c r="C2">
+        <v>11.929703674607584</v>
+      </c>
+      <c r="D2">
+        <v>29.391972093877154</v>
+      </c>
+      <c r="E2">
+        <v>43.404248291290067</v>
+      </c>
+      <c r="F2">
+        <v>24.264497336500646</v>
+      </c>
+      <c r="G2">
+        <v>18.048976321784931</v>
+      </c>
+      <c r="H2">
+        <v>18.824951388859777</v>
+      </c>
+      <c r="I2">
+        <v>29.616967972094155</v>
+      </c>
+      <c r="J2">
+        <v>26.412305259171198</v>
+      </c>
+      <c r="K2">
+        <v>9.6699185900554419</v>
+      </c>
+      <c r="L2">
+        <v>10.920123424414005</v>
+      </c>
+      <c r="M2">
+        <v>3.6496814522600736</v>
+      </c>
+      <c r="N2">
         <v>23.254962237594334</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>35.768235095090375</v>
+      </c>
+      <c r="Q2">
+        <v>3.2396632753460843</v>
+      </c>
+      <c r="R2">
+        <v>-5.0379295087167808</v>
+      </c>
+      <c r="T2">
+        <v>30.399511624105703</v>
+      </c>
+      <c r="U2">
+        <v>5.326600266253501</v>
+      </c>
+      <c r="V2">
+        <v>27.94352070190509</v>
+      </c>
+      <c r="W2">
+        <v>-5.4479690301555239</v>
+      </c>
+      <c r="X2">
+        <v>8.382174544001419</v>
+      </c>
+      <c r="Y2">
+        <v>38.9367202335551</v>
+      </c>
+      <c r="Z2">
+        <v>21.694346004506183</v>
+      </c>
+      <c r="AA2">
+        <v>44.596463112076009</v>
+      </c>
+      <c r="AB2">
+        <v>32.087357028778534</v>
+      </c>
+      <c r="AC2">
+        <v>11.674763402637982</v>
+      </c>
+      <c r="AD2">
+        <v>54.269046050525603</v>
+      </c>
+      <c r="AE2">
+        <v>22.627627629959619</v>
+      </c>
+      <c r="AF2">
+        <v>28.924693353948328</v>
+      </c>
+      <c r="AG2">
+        <v>35.146283427083787</v>
+      </c>
+      <c r="AH2">
+        <v>33.778010103404199</v>
+      </c>
+      <c r="AI2">
+        <v>32.508013140303049</v>
+      </c>
+      <c r="AJ2">
+        <v>23.937593524744013</v>
+      </c>
+      <c r="AK2">
+        <v>30.936771716589469</v>
+      </c>
+      <c r="AL2">
+        <v>-6.5522317615746353E-2</v>
+      </c>
+      <c r="AM2">
         <v>34.561854057171395</v>
       </c>
-      <c r="F2">
-        <v>24.264497336017165</v>
-      </c>
-      <c r="G2">
-        <v>18.048976381271594</v>
-      </c>
-      <c r="H2">
-        <v>18.429871055416903</v>
-      </c>
-      <c r="I2">
-        <v>29.598263195348974</v>
-      </c>
-      <c r="J2">
-        <v>26.199660234080781</v>
-      </c>
-      <c r="K2">
-        <v>8.0234832272161647</v>
-      </c>
-      <c r="L2">
-        <v>7.3836423301421386</v>
-      </c>
-      <c r="M2">
-        <v>3.6496814639097632</v>
-      </c>
-      <c r="N2">
-        <v>21.840536384067271</v>
-      </c>
-      <c r="P2">
-        <v>35.768235182502366</v>
-      </c>
-      <c r="Q2">
-        <v>3.2396633302886579</v>
-      </c>
-      <c r="R2">
-        <v>-5.0379295576869376</v>
-      </c>
-      <c r="T2">
-        <v>30.399511608226938</v>
-      </c>
-      <c r="U2">
-        <v>3.7028259497375564</v>
-      </c>
-      <c r="V2">
-        <v>20.212446013723088</v>
-      </c>
-      <c r="W2">
-        <v>-12.254139200326032</v>
-      </c>
-      <c r="X2">
-        <v>5.902693916228138</v>
-      </c>
-      <c r="Y2">
-        <v>37.888399654271709</v>
-      </c>
-      <c r="Z2">
-        <v>21.694346045653933</v>
-      </c>
-      <c r="AA2">
-        <v>43.469810881254134</v>
-      </c>
-      <c r="AB2">
-        <v>32.087357157846</v>
-      </c>
-      <c r="AC2">
-        <v>5.5501907232172538</v>
-      </c>
-      <c r="AD2">
-        <v>49.438105782777306</v>
-      </c>
-      <c r="AE2">
-        <v>22.627627682645983</v>
-      </c>
-      <c r="AF2">
-        <v>28.924693421245017</v>
-      </c>
-      <c r="AG2">
-        <v>35.191906680604774</v>
-      </c>
-      <c r="AH2">
-        <v>30.127716875639432</v>
-      </c>
-      <c r="AI2">
-        <v>31.943599742912927</v>
-      </c>
-      <c r="AJ2">
-        <v>19.380218473773564</v>
-      </c>
-      <c r="AK2">
-        <v>26.972176533942065</v>
-      </c>
-      <c r="AL2">
-        <v>-6.552229435559076E-2</v>
-      </c>
-      <c r="AM2">
-        <v>30.667065519376731</v>
-      </c>
       <c r="AO2">
-        <v>53.33195616456856</v>
+        <v>53.331956066206942</v>
       </c>
       <c r="AP2">
-        <v>35.474525359703549</v>
+        <v>35.474525282252849</v>
       </c>
       <c r="AR2">
-        <v>38.979623983202451</v>
+        <v>39.088957853859625</v>
       </c>
       <c r="AS2">
-        <v>33.708427967749984</v>
+        <v>33.708427919476499</v>
       </c>
       <c r="AT2">
-        <v>16.935846522471451</v>
+        <v>19.21179334979869</v>
       </c>
       <c r="AU2">
-        <v>16.213513375685398</v>
+        <v>18.897373827170703</v>
       </c>
       <c r="AV2">
-        <v>14.408680650520845</v>
+        <v>30.207374882580883</v>
       </c>
       <c r="AW2">
-        <v>12.977656340293874</v>
+        <v>16.305117680598283</v>
       </c>
       <c r="AX2">
-        <v>32.447929155506976</v>
+        <v>33.776721151149189</v>
       </c>
       <c r="AY2">
-        <v>43.107569289998594</v>
+        <v>43.107569247971547</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.304330589090199</v>
+      </c>
+      <c r="C3">
+        <v>18.498731489136237</v>
+      </c>
+      <c r="D3">
+        <v>35.5408761611572</v>
+      </c>
+      <c r="E3">
+        <v>43.693660631346731</v>
+      </c>
+      <c r="F3">
+        <v>17.563431975034632</v>
+      </c>
+      <c r="G3">
+        <v>27.232225251025266</v>
+      </c>
+      <c r="H3">
+        <v>4.3511259748722093</v>
+      </c>
+      <c r="I3">
+        <v>8.3856090355137543</v>
+      </c>
+      <c r="J3">
+        <v>32.208460956674038</v>
+      </c>
+      <c r="K3">
+        <v>49.191297995372388</v>
+      </c>
+      <c r="L3">
+        <v>38.831407511788989</v>
+      </c>
+      <c r="M3">
+        <v>0.1821946261483825</v>
+      </c>
+      <c r="N3">
         <v>20.682618561610106</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-6.5016201590062561</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>34.788400817364625</v>
+      </c>
+      <c r="Q3">
+        <v>16.511123257647871</v>
+      </c>
+      <c r="R3">
+        <v>6.1270725978282803</v>
+      </c>
+      <c r="S3">
+        <v>31.230574214754554</v>
+      </c>
+      <c r="T3">
+        <v>36.766589166826627</v>
+      </c>
+      <c r="U3">
+        <v>20.204850097989365</v>
+      </c>
+      <c r="V3">
+        <v>29.261195529307276</v>
+      </c>
+      <c r="W3">
+        <v>4.6349072973228935</v>
+      </c>
+      <c r="X3">
+        <v>-1.1731183731298778</v>
+      </c>
+      <c r="Y3">
+        <v>41.560171419565144</v>
+      </c>
+      <c r="Z3">
+        <v>24.182805259278165</v>
+      </c>
+      <c r="AA3">
+        <v>44.661965303193448</v>
+      </c>
+      <c r="AB3">
+        <v>38.568086409438671</v>
+      </c>
+      <c r="AC3">
+        <v>45.33845016341003</v>
+      </c>
+      <c r="AD3">
+        <v>48.001103374031793</v>
+      </c>
+      <c r="AE3">
+        <v>43.832344477311899</v>
+      </c>
+      <c r="AF3">
+        <v>28.897048545610204</v>
+      </c>
+      <c r="AG3">
+        <v>18.66592459448681</v>
+      </c>
+      <c r="AH3">
+        <v>9.7071281925496269</v>
+      </c>
+      <c r="AI3">
+        <v>33.723495594366064</v>
+      </c>
+      <c r="AJ3">
+        <v>46.223079258678105</v>
+      </c>
+      <c r="AK3">
+        <v>35.837872473075997</v>
+      </c>
+      <c r="AL3">
+        <v>22.501596381713494</v>
+      </c>
+      <c r="AM3">
         <v>23.677839492541434</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-12.316003057273068</v>
       </c>
-      <c r="F3">
-        <v>15.957708493147486</v>
-      </c>
-      <c r="G3">
-        <v>25.510651913673442</v>
-      </c>
-      <c r="H3">
-        <v>4.3511259518138283</v>
-      </c>
-      <c r="I3">
-        <v>8.385609058501041</v>
-      </c>
-      <c r="J3">
-        <v>32.208461037824016</v>
-      </c>
-      <c r="K3">
-        <v>49.191298000751857</v>
-      </c>
-      <c r="L3">
-        <v>38.831407572293664</v>
-      </c>
-      <c r="M3">
-        <v>-2.2756407717786806</v>
-      </c>
-      <c r="N3">
-        <v>20.682618568406106</v>
-      </c>
-      <c r="O3">
-        <v>-6.5016201552709072</v>
-      </c>
-      <c r="P3">
-        <v>33.435777015434162</v>
-      </c>
-      <c r="Q3">
-        <v>15.573339710214373</v>
-      </c>
-      <c r="R3">
-        <v>-0.28645486103765549</v>
-      </c>
-      <c r="S3">
-        <v>31.230574268518296</v>
-      </c>
-      <c r="T3">
-        <v>35.736491180088272</v>
-      </c>
-      <c r="U3">
-        <v>20.204850153436961</v>
-      </c>
-      <c r="V3">
-        <v>29.261195209204221</v>
-      </c>
-      <c r="W3">
-        <v>4.6349073067002298</v>
-      </c>
-      <c r="X3">
-        <v>-1.1731183458703709</v>
-      </c>
-      <c r="Y3">
-        <v>41.560171507136495</v>
-      </c>
-      <c r="Z3">
-        <v>23.777280095507493</v>
-      </c>
-      <c r="AA3">
-        <v>44.661965376314328</v>
-      </c>
-      <c r="AB3">
-        <v>34.610549908130366</v>
-      </c>
-      <c r="AC3">
-        <v>45.338450247838871</v>
-      </c>
-      <c r="AD3">
-        <v>48.001103406325477</v>
-      </c>
-      <c r="AE3">
-        <v>41.129428908658483</v>
-      </c>
-      <c r="AF3">
-        <v>27.012339081685205</v>
-      </c>
-      <c r="AG3">
-        <v>18.665924649782404</v>
-      </c>
-      <c r="AH3">
-        <v>9.7071282418269771</v>
-      </c>
-      <c r="AI3">
-        <v>33.723495700304312</v>
-      </c>
-      <c r="AJ3">
-        <v>46.223079361611795</v>
-      </c>
-      <c r="AK3">
-        <v>35.837872550080476</v>
-      </c>
-      <c r="AL3">
-        <v>17.97679956443957</v>
-      </c>
-      <c r="AM3">
-        <v>23.677839633543243</v>
-      </c>
-      <c r="AN3">
-        <v>-12.31600301477677</v>
-      </c>
       <c r="AO3">
-        <v>46.583341797160323</v>
+        <v>49.160295575406195</v>
       </c>
       <c r="AP3">
-        <v>13.950741579122605</v>
+        <v>15.042812540776799</v>
       </c>
       <c r="AQ3">
-        <v>24.981617158609104</v>
+        <v>27.321245754272983</v>
       </c>
       <c r="AR3">
-        <v>47.106139158889903</v>
+        <v>47.106139112186717</v>
       </c>
       <c r="AS3">
-        <v>31.71654782322868</v>
+        <v>33.011313676974879</v>
       </c>
       <c r="AT3">
-        <v>27.074993367841838</v>
+        <v>27.074993310642732</v>
       </c>
       <c r="AU3">
-        <v>20.01545376441144</v>
+        <v>20.015453736788579</v>
       </c>
       <c r="AV3">
-        <v>15.939263748550921</v>
+        <v>15.939263630204795</v>
       </c>
       <c r="AW3">
-        <v>12.805408860670051</v>
+        <v>12.805408793303993</v>
       </c>
       <c r="AX3">
-        <v>15.383506618441267</v>
+        <v>15.383506587207338</v>
       </c>
       <c r="AY3">
-        <v>43.754098369060927</v>
+        <v>44.267001811372921</v>
       </c>
     </row>
   </sheetData>
